--- a/biology/Médecine/Biorésonance/Biorésonance.xlsx
+++ b/biology/Médecine/Biorésonance/Biorésonance.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Bior%C3%A9sonance</t>
+          <t>Biorésonance</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La biorésonance est  un concept utilisé en thérapie non conventionnelle, notamment en médecine quantique. Elle permettrait de faire des bilans de terrain, repérer éventuellement des « anomalies électromagnétiques » au sein des organes et de les rectifier en envoyant des signaux de très faible intensité.
 Ce concept de thérapie non conventionnelle est non intrusif. Il représente la capacité de capter et d'émettre des rayonnements par les êtres vivants. La biorésonance englobe également les méthodes et appareils basés sur l'émission de rayonnements électromagnétiques destinés à rééquilibrer l'énergie corporelle. 
-La biorésonance est considérée comme pseudo-scientifique[1], elle n'est pas reconnue scientifiquement. Aucun résultat n’a pu être démontré et les études scientifiques n'ont pas montré d'effet supérieur à l'effet placebo[2],[3],[4],[5],[6],[7],[8],[9].
+La biorésonance est considérée comme pseudo-scientifique, elle n'est pas reconnue scientifiquement. Aucun résultat n’a pu être démontré et les études scientifiques n'ont pas montré d'effet supérieur à l'effet placebo.
 </t>
         </is>
       </c>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Bior%C3%A9sonance</t>
+          <t>Biorésonance</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Des signaux électromagnétiques précis et de très faible intensité permettraient de faire passer la cohésion d'un système biologique d'un état instable, supposé être à l'origine de certaines pathologies, vers un état d'équilibre stable physiologique. Ces signaux peuvent être de deux natures différentes :
@@ -530,7 +544,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Bior%C3%A9sonance</t>
+          <t>Biorésonance</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,9 +562,11 @@
           <t>Juridique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 2015, une femme médecin française fait état sur des sites internet d'un traitement par " biorésonance " qu'elle pratiquait à Londres ainsi que des mérites supposés de cette méthode non éprouvée dont elle se porte garante. Elle s'est ainsi rendue coupable d'user de procédés à caractère publicitaire contraires aux dispositions de l'article R4127-13 du code de la santé publique. Elle a été sanctionnée par l'interdiction d'exercer la médecine pendant une durée d'un an[10].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2015, une femme médecin française fait état sur des sites internet d'un traitement par " biorésonance " qu'elle pratiquait à Londres ainsi que des mérites supposés de cette méthode non éprouvée dont elle se porte garante. Elle s'est ainsi rendue coupable d'user de procédés à caractère publicitaire contraires aux dispositions de l'article R4127-13 du code de la santé publique. Elle a été sanctionnée par l'interdiction d'exercer la médecine pendant une durée d'un an.
 </t>
         </is>
       </c>
